--- a/expense/越野组/2024-08-29/汇总表.xlsx
+++ b/expense/越野组/2024-08-29/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14085"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -263,6 +263,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -284,28 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -314,25 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +322,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,21 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,13 +432,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,157 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,23 +645,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,31 +691,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,11 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,152 +744,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +945,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1298,10 +1301,10 @@
   <sheetPr/>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1346,7 +1349,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -1367,7 +1370,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:12">
@@ -1394,8 +1397,8 @@
         <v>192</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="22">
-        <f>IF(F3&lt;G3,F3,G3)</f>
+      <c r="I3" s="23">
+        <f t="shared" ref="I3:I8" si="0">IF(F3&lt;G3,F3,G3)</f>
         <v>192</v>
       </c>
       <c r="J3" s="7">
@@ -1405,13 +1408,13 @@
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A18" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A18" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1433,17 +1436,17 @@
         <v>8.6</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="22">
-        <f>IF(F4&lt;G4,F4,G4)</f>
+      <c r="I4" s="23">
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1465,17 +1468,17 @@
         <v>31.3</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="22">
-        <f>IF(F5&lt;G5,F5,G5)</f>
+      <c r="I5" s="23">
+        <f t="shared" si="0"/>
         <v>31.3</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="23"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1497,17 +1500,17 @@
         <v>18</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="22">
-        <f>IF(F6&lt;G6,F6,G6)</f>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1529,17 +1532,17 @@
         <v>17.6</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="22">
-        <f>IF(F7&lt;G7,F7,G7)</f>
+      <c r="I7" s="23">
+        <f t="shared" si="0"/>
         <v>17.6</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1561,17 +1564,17 @@
         <v>25.98</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="22">
-        <f>IF(F8&lt;G8,F8,G8)</f>
+      <c r="I8" s="23">
+        <f t="shared" si="0"/>
         <v>25.98</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1593,17 +1596,17 @@
         <v>407.31</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <f>IF(SUM(F9:F13)&lt;G9,SUM(F9:F13),G9)</f>
         <v>407.31</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1619,14 +1622,14 @@
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1642,14 +1645,14 @@
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1665,14 +1668,14 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1688,14 +1691,14 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1717,17 +1720,17 @@
         <v>19.38</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <f>IF(SUM(F14:F15)&lt;G14,SUM(F14:F15),G14)</f>
         <v>19.38</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="23"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1747,14 +1750,14 @@
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1776,17 +1779,17 @@
         <v>9.52</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <f>IF(F16&lt;G16,F16,G16)</f>
         <v>9.52</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="23"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1810,17 +1813,17 @@
       <c r="H17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <f>IF(F17&lt;G17,F17,G17)</f>
         <v>1512</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1842,13 +1845,13 @@
         <v>10.6</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <f>IF(SUM(F18:F19)&lt;G18,SUM(F18:F19),G18)</f>
         <v>10.49</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7"/>
@@ -1865,10 +1868,10 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7">
@@ -1894,13 +1897,13 @@
         <v>44.5</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="22">
-        <f>IF(F20&lt;G20,F20,G20)</f>
+      <c r="I20" s="23">
+        <f t="shared" ref="I20:I27" si="2">IF(F20&lt;G20,F20,G20)</f>
         <v>44.5</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7">
@@ -1926,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="22">
-        <f>IF(F21&lt;G21,F21,G21)</f>
+      <c r="I21" s="23">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7">
@@ -1958,13 +1961,13 @@
         <v>141.5</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="22">
-        <f>IF(F22&lt;G22,F22,G22)</f>
+      <c r="I22" s="23">
+        <f t="shared" si="2"/>
         <v>141.5</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7">
@@ -1990,13 +1993,13 @@
         <v>4.5</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="22">
-        <f>IF(F23&lt;G23,F23,G23)</f>
+      <c r="I23" s="23">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7">
@@ -2019,20 +2022,20 @@
         <v>27.65</v>
       </c>
       <c r="G24" s="16">
-        <v>27.94</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="22">
-        <f>IF(F24&lt;G24,F24,G24)</f>
+        <v>27.65</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="23">
+        <f t="shared" si="2"/>
         <v>27.65</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7">
-        <f t="shared" ref="A25:A37" si="1">ROW()-2</f>
+        <f t="shared" ref="A25:A37" si="3">ROW()-2</f>
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2054,17 +2057,17 @@
         <v>27.94</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="22">
-        <f>IF(F25&lt;G25,F25,G25)</f>
+      <c r="I25" s="23">
+        <f t="shared" si="2"/>
         <v>27.94</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2086,17 +2089,17 @@
         <v>8</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="22">
-        <f>IF(F26&lt;G26,F26,G26)</f>
+      <c r="I26" s="23">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2118,17 +2121,17 @@
         <v>17</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="22">
-        <f>IF(F27&lt;G27,F27,G27)</f>
+      <c r="I27" s="23">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="23"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2150,17 +2153,17 @@
         <v>23.2</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <f>IF(SUM(F28:F29)&lt;G28,SUM(F28:F29),G28)</f>
         <v>23.2</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2178,16 +2181,16 @@
       <c r="F29" s="16">
         <v>15.4</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="23"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2209,17 +2212,17 @@
         <v>22.31</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <f>IF(F30&lt;G30,F30,G30)</f>
         <v>22.31</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2241,17 +2244,17 @@
         <v>128.2</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <f>IF(SUM(F31:F33)&lt;G31,SUM(F31:F33),G31)</f>
         <v>128.2</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2271,14 +2274,14 @@
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2298,14 +2301,14 @@
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="22"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="7"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2327,17 +2330,17 @@
         <v>14.9</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <f>IF(F34&lt;G34,F34,G34)</f>
         <v>14.9</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2359,17 +2362,17 @@
         <v>11.88</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <f>IF(F35&lt;G35,F35,G35)</f>
         <v>11.88</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2391,17 +2394,17 @@
         <v>25.8</v>
       </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <f>IF(F36&lt;G36,F36,G36)</f>
         <v>25.8</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2423,13 +2426,13 @@
         <v>94.4</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <f>IF(SUM(F37:F38)&lt;G37,SUM(F37:F38),G37)</f>
         <v>94.27</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="23"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7"/>
@@ -2444,16 +2447,16 @@
       <c r="F38" s="16">
         <v>2.87</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="7"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="23"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7">
-        <f t="shared" ref="A39:A47" si="2">ROW()-2</f>
+        <f t="shared" ref="A39:A47" si="4">ROW()-2</f>
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2475,17 +2478,17 @@
         <v>93</v>
       </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <f>IF(F39&lt;G39,F39,G39)</f>
         <v>93</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="18"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -2509,17 +2512,17 @@
       <c r="H40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <f>IF(SUM(F40:F47)&lt;G40,SUM(F40:F47),G40)</f>
         <v>3697.1</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="18"/>
-      <c r="L40" s="23"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2539,14 +2542,14 @@
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="7"/>
       <c r="K41" s="18"/>
-      <c r="L41" s="23"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2566,14 +2569,14 @@
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="7"/>
       <c r="K42" s="18"/>
-      <c r="L42" s="23"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2593,14 +2596,14 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="7"/>
       <c r="K43" s="18"/>
-      <c r="L43" s="23"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2620,14 +2623,14 @@
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="7"/>
       <c r="K44" s="18"/>
-      <c r="L44" s="23"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -2647,14 +2650,14 @@
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="7"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="23"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2674,14 +2677,14 @@
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="7"/>
       <c r="K46" s="18"/>
-      <c r="L46" s="23"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -2701,10 +2704,10 @@
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="7"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="23"/>
+      <c r="L47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2824,7 +2827,7 @@
     <hyperlink ref="C23" r:id="rId71" display="欧贝顿旗舰店-1812102J"/>
     <hyperlink ref="D24" r:id="rId72" display="订单"/>
     <hyperlink ref="F24" r:id="rId73" display="27.65"/>
-    <hyperlink ref="G24" r:id="rId74" display="27.94"/>
+    <hyperlink ref="G24" r:id="rId74" display="27.65"/>
     <hyperlink ref="C24" r:id="rId75" display="深圳市海凌科电子-B1205S"/>
     <hyperlink ref="D25" r:id="rId76" display="订单"/>
     <hyperlink ref="F25" r:id="rId77" display="27.94"/>

--- a/expense/越野组/2024-08-29/汇总表.xlsx
+++ b/expense/越野组/2024-08-29/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -283,14 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -300,9 +292,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,14 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -345,21 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,23 +345,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +377,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -432,31 +432,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,43 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,91 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -686,6 +706,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,179 +739,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +951,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,12 +1302,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28:H29"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1349,7 +1352,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -1370,7 +1373,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:12">
@@ -1397,7 +1400,7 @@
         <v>192</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="23">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:I8" si="0">IF(F3&lt;G3,F3,G3)</f>
         <v>192</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1436,13 +1439,13 @@
         <v>8.6</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="23">
+      <c r="I4" s="24">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7">
@@ -1468,13 +1471,13 @@
         <v>31.3</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="23">
+      <c r="I5" s="24">
         <f t="shared" si="0"/>
         <v>31.3</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7">
@@ -1500,13 +1503,13 @@
         <v>18</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="23">
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7">
@@ -1532,13 +1535,13 @@
         <v>17.6</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="23">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>17.6</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7">
@@ -1564,13 +1567,13 @@
         <v>25.98</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="23">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>25.98</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7">
@@ -1596,13 +1599,13 @@
         <v>407.31</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="23">
+      <c r="I9" s="24">
         <f>IF(SUM(F9:F13)&lt;G9,SUM(F9:F13),G9)</f>
         <v>407.31</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7">
@@ -1622,10 +1625,10 @@
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7">
@@ -1645,10 +1648,10 @@
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7">
@@ -1668,10 +1671,10 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1691,10 +1694,10 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7">
@@ -1720,13 +1723,13 @@
         <v>19.38</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="23">
+      <c r="I14" s="24">
         <f>IF(SUM(F14:F15)&lt;G14,SUM(F14:F15),G14)</f>
         <v>19.38</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7">
@@ -1750,10 +1753,10 @@
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -1779,13 +1782,13 @@
         <v>9.52</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <f>IF(F16&lt;G16,F16,G16)</f>
         <v>9.52</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7">
@@ -1813,13 +1816,13 @@
       <c r="H17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="24">
         <f>IF(F17&lt;G17,F17,G17)</f>
         <v>1512</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7">
@@ -1845,13 +1848,13 @@
         <v>10.6</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="23">
+      <c r="I18" s="24">
         <f>IF(SUM(F18:F19)&lt;G18,SUM(F18:F19),G18)</f>
         <v>10.49</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7"/>
@@ -1868,10 +1871,10 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7">
@@ -1897,13 +1900,13 @@
         <v>44.5</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="23">
+      <c r="I20" s="24">
         <f t="shared" ref="I20:I27" si="2">IF(F20&lt;G20,F20,G20)</f>
         <v>44.5</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7">
@@ -1929,13 +1932,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="23">
+      <c r="I21" s="24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7">
@@ -1961,13 +1964,13 @@
         <v>141.5</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="23">
+      <c r="I22" s="24">
         <f t="shared" si="2"/>
         <v>141.5</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7">
@@ -1993,13 +1996,13 @@
         <v>4.5</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="23">
+      <c r="I23" s="24">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7">
@@ -2025,13 +2028,13 @@
         <v>27.65</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="23">
+      <c r="I24" s="24">
         <f t="shared" si="2"/>
         <v>27.65</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7">
@@ -2057,13 +2060,13 @@
         <v>27.94</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="23">
+      <c r="I25" s="24">
         <f t="shared" si="2"/>
         <v>27.94</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7">
@@ -2089,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="23">
+      <c r="I26" s="24">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7">
@@ -2121,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="23">
+      <c r="I27" s="24">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7">
@@ -2153,13 +2156,13 @@
         <v>23.2</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="23">
+      <c r="I28" s="24">
         <f>IF(SUM(F28:F29)&lt;G28,SUM(F28:F29),G28)</f>
         <v>23.2</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7">
@@ -2183,10 +2186,10 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7">
@@ -2212,13 +2215,13 @@
         <v>22.31</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="23">
+      <c r="I30" s="24">
         <f>IF(F30&lt;G30,F30,G30)</f>
         <v>22.31</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7">
@@ -2244,13 +2247,13 @@
         <v>128.2</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="23">
+      <c r="I31" s="24">
         <f>IF(SUM(F31:F33)&lt;G31,SUM(F31:F33),G31)</f>
         <v>128.2</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7">
@@ -2274,10 +2277,10 @@
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="23"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7">
@@ -2301,10 +2304,10 @@
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="7"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7">
@@ -2330,13 +2333,13 @@
         <v>14.9</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="23">
+      <c r="I34" s="24">
         <f>IF(F34&lt;G34,F34,G34)</f>
         <v>14.9</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="24"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7">
@@ -2362,13 +2365,13 @@
         <v>11.88</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="23">
+      <c r="I35" s="24">
         <f>IF(F35&lt;G35,F35,G35)</f>
         <v>11.88</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="24"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7">
@@ -2394,13 +2397,13 @@
         <v>25.8</v>
       </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="23">
+      <c r="I36" s="24">
         <f>IF(F36&lt;G36,F36,G36)</f>
         <v>25.8</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="24"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7">
@@ -2426,13 +2429,13 @@
         <v>94.4</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="23">
+      <c r="I37" s="24">
         <f>IF(SUM(F37:F38)&lt;G37,SUM(F37:F38),G37)</f>
         <v>94.27</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="24"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7"/>
@@ -2449,10 +2452,10 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="23"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="7"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7">
@@ -2478,13 +2481,13 @@
         <v>93</v>
       </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="23">
+      <c r="I39" s="24">
         <f>IF(F39&lt;G39,F39,G39)</f>
         <v>93</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="18"/>
-      <c r="L39" s="24"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7">
@@ -2512,13 +2515,13 @@
       <c r="H40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="24">
         <f>IF(SUM(F40:F47)&lt;G40,SUM(F40:F47),G40)</f>
         <v>3697.1</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="18"/>
-      <c r="L40" s="24"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7">
@@ -2542,10 +2545,10 @@
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="23"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="7"/>
       <c r="K41" s="18"/>
-      <c r="L41" s="24"/>
+      <c r="L41" s="25"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7">
@@ -2569,10 +2572,10 @@
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="23"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="7"/>
       <c r="K42" s="18"/>
-      <c r="L42" s="24"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7">
@@ -2596,10 +2599,10 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="23"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="7"/>
       <c r="K43" s="18"/>
-      <c r="L43" s="24"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7">
@@ -2623,10 +2626,10 @@
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="23"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="7"/>
       <c r="K44" s="18"/>
-      <c r="L44" s="24"/>
+      <c r="L44" s="25"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7">
@@ -2650,10 +2653,10 @@
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="23"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="7"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="24"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7">
@@ -2677,10 +2680,10 @@
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="7"/>
       <c r="K46" s="18"/>
-      <c r="L46" s="24"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7">
@@ -2704,10 +2707,16 @@
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="23"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="7"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="25"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="21">
+        <f>SUM(G3:G40)</f>
+        <v>6640.47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
